--- a/evolutdoc/thesis/assets/gekürzte_rang_basierte_selektion.xlsx
+++ b/evolutdoc/thesis/assets/gekürzte_rang_basierte_selektion.xlsx
@@ -101,13 +101,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +400,7 @@
   <dimension ref="A4:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F27:F28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,34 +430,34 @@
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
       <c r="N5" s="1"/>
@@ -457,16 +466,16 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -475,34 +484,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>7</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>10</v>
       </c>
       <c r="N7" s="1"/>
@@ -511,16 +520,16 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -529,34 +538,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>2</v>
       </c>
       <c r="N9" s="1"/>
@@ -761,7 +770,7 @@
       <c r="A23" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
